--- a/simulation_data/iterative_algorithm/i_error_level_12_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_12_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.96928295827288</v>
+        <v>91.10037768124124</v>
       </c>
       <c r="D2" t="n">
-        <v>16.72306555005011</v>
+        <v>16.54035542408059</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.59623591805342</v>
+        <v>89.16536281383033</v>
       </c>
       <c r="D3" t="n">
-        <v>16.18353475518408</v>
+        <v>12.74564782333871</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28083675276143</v>
+        <v>86.01898377683709</v>
       </c>
       <c r="D4" t="n">
-        <v>15.2419526507075</v>
+        <v>14.45093665449558</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.64943624913256</v>
+        <v>88.95975810993396</v>
       </c>
       <c r="D5" t="n">
-        <v>15.69605677523871</v>
+        <v>15.2319574842231</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.09703477578982</v>
+        <v>82.54586901595019</v>
       </c>
       <c r="D6" t="n">
-        <v>14.84350293862196</v>
+        <v>15.52745038180092</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.17467952015306</v>
+        <v>86.3134302239399</v>
       </c>
       <c r="D7" t="n">
-        <v>17.14258980792862</v>
+        <v>13.6300611120526</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.32315548749641</v>
+        <v>85.19774632940411</v>
       </c>
       <c r="D8" t="n">
-        <v>16.27254074441333</v>
+        <v>15.32472884531769</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.27338015821195</v>
+        <v>78.11878922399154</v>
       </c>
       <c r="D9" t="n">
-        <v>14.75648076306865</v>
+        <v>15.53114460263226</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>79.60119491648722</v>
+        <v>83.37926736766626</v>
       </c>
       <c r="D10" t="n">
-        <v>16.45407423361334</v>
+        <v>16.00276411990887</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.05623278411944</v>
+        <v>79.44806546687447</v>
       </c>
       <c r="D11" t="n">
-        <v>14.29106209753377</v>
+        <v>14.24460392762799</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.02185187532902</v>
+        <v>80.71205798336398</v>
       </c>
       <c r="D12" t="n">
-        <v>16.72023443874403</v>
+        <v>12.72926825725363</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.75306732321938</v>
+        <v>79.21054056773787</v>
       </c>
       <c r="D13" t="n">
-        <v>15.34115498162786</v>
+        <v>16.44452266362427</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.90267334941458</v>
+        <v>77.09303131533848</v>
       </c>
       <c r="D14" t="n">
-        <v>13.65596435995319</v>
+        <v>12.89959185864795</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.63954209023107</v>
+        <v>75.64180615184497</v>
       </c>
       <c r="D15" t="n">
-        <v>16.12196255300831</v>
+        <v>16.5207769682952</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.65934126563447</v>
+        <v>76.01568024246777</v>
       </c>
       <c r="D16" t="n">
-        <v>14.60481565866658</v>
+        <v>15.82152732082981</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.23916531533108</v>
+        <v>74.41144603156947</v>
       </c>
       <c r="D17" t="n">
-        <v>13.9603092888341</v>
+        <v>13.83090322022101</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.55278190623335</v>
+        <v>72.62178039720001</v>
       </c>
       <c r="D18" t="n">
-        <v>14.89311261891242</v>
+        <v>17.31113056999624</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.25477745522915</v>
+        <v>71.1787884138308</v>
       </c>
       <c r="D19" t="n">
-        <v>17.64589172682998</v>
+        <v>13.32497066832801</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.45931033740753</v>
+        <v>68.09195642036853</v>
       </c>
       <c r="D20" t="n">
-        <v>16.18113180720506</v>
+        <v>13.13300095822351</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.14865767010788</v>
+        <v>70.57943234942547</v>
       </c>
       <c r="D21" t="n">
-        <v>13.95284612331536</v>
+        <v>14.11671229312826</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.4060078570991</v>
+        <v>71.63252800253609</v>
       </c>
       <c r="D22" t="n">
-        <v>16.65451302572659</v>
+        <v>15.82536344015668</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.04399965476505</v>
+        <v>66.22116089783742</v>
       </c>
       <c r="D23" t="n">
-        <v>18.04624817596263</v>
+        <v>13.59109725023829</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.56228461732296</v>
+        <v>68.303438231583</v>
       </c>
       <c r="D24" t="n">
-        <v>17.94834492832619</v>
+        <v>14.73966811291694</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.86736719892038</v>
+        <v>67.38810745945089</v>
       </c>
       <c r="D25" t="n">
-        <v>16.43034303831583</v>
+        <v>13.55823779848469</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.13262230239739</v>
+        <v>66.25248000148252</v>
       </c>
       <c r="D26" t="n">
-        <v>16.14647192945301</v>
+        <v>16.34396193375575</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.0191095940397</v>
+        <v>64.6165217453317</v>
       </c>
       <c r="D27" t="n">
-        <v>15.54668649430664</v>
+        <v>16.71754528764383</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.90212887607434</v>
+        <v>65.18172880861808</v>
       </c>
       <c r="D28" t="n">
-        <v>16.54445897840991</v>
+        <v>16.13931747844376</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.94486593612484</v>
+        <v>63.39601162106788</v>
       </c>
       <c r="D29" t="n">
-        <v>15.53767181896992</v>
+        <v>15.99067367079916</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.9055341965671</v>
+        <v>61.50424951311443</v>
       </c>
       <c r="D30" t="n">
-        <v>15.75662007210528</v>
+        <v>14.52116499219069</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.04312897294308</v>
+        <v>57.63692843772511</v>
       </c>
       <c r="D31" t="n">
-        <v>14.25377155975926</v>
+        <v>16.51583053024422</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>63.07023635482053</v>
+        <v>59.55755180263632</v>
       </c>
       <c r="D32" t="n">
-        <v>15.25231311944034</v>
+        <v>15.97562948591971</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.53505299874562</v>
+        <v>59.34414879690749</v>
       </c>
       <c r="D33" t="n">
-        <v>15.67552509866859</v>
+        <v>15.77856870471895</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.20373576012594</v>
+        <v>57.08612339950089</v>
       </c>
       <c r="D34" t="n">
-        <v>16.65934502178949</v>
+        <v>15.32552548408839</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.2189829056552</v>
+        <v>58.32714107323312</v>
       </c>
       <c r="D35" t="n">
-        <v>15.63087042356039</v>
+        <v>14.13553971700485</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.10659969822989</v>
+        <v>57.42529071108246</v>
       </c>
       <c r="D36" t="n">
-        <v>14.98762302462563</v>
+        <v>14.45186843800039</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.56804572741954</v>
+        <v>53.62056414233314</v>
       </c>
       <c r="D37" t="n">
-        <v>16.78986940984933</v>
+        <v>15.64546053695751</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.16814646147261</v>
+        <v>52.01503933226458</v>
       </c>
       <c r="D38" t="n">
-        <v>17.28468507903915</v>
+        <v>14.85277782597376</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.32489323269952</v>
+        <v>54.12737847762275</v>
       </c>
       <c r="D39" t="n">
-        <v>14.28991384421682</v>
+        <v>15.78167869753319</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.64903978031288</v>
+        <v>51.25008819981267</v>
       </c>
       <c r="D40" t="n">
-        <v>16.34875026341811</v>
+        <v>15.65354851661943</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.3522227801818</v>
+        <v>50.12106798164447</v>
       </c>
       <c r="D41" t="n">
-        <v>17.57827978524418</v>
+        <v>16.44231215914423</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.63905109791481</v>
+        <v>49.56992194839718</v>
       </c>
       <c r="D42" t="n">
-        <v>16.03947588664384</v>
+        <v>15.59536534945826</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.81608587263037</v>
+        <v>49.53642105447413</v>
       </c>
       <c r="D43" t="n">
-        <v>17.17895449107942</v>
+        <v>15.21459028963449</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.53797303768768</v>
+        <v>46.39005893818862</v>
       </c>
       <c r="D44" t="n">
-        <v>14.91858832459693</v>
+        <v>14.71575916687425</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.17764371751107</v>
+        <v>45.87392366969938</v>
       </c>
       <c r="D45" t="n">
-        <v>16.45964317815182</v>
+        <v>15.6461789006594</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>43.91043880862581</v>
+        <v>45.71818832756757</v>
       </c>
       <c r="D46" t="n">
-        <v>16.10579764837267</v>
+        <v>15.74431311329503</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.1519371644099</v>
+        <v>41.47221530546427</v>
       </c>
       <c r="D47" t="n">
-        <v>15.64135175866872</v>
+        <v>15.28353526078007</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.24008900094481</v>
+        <v>43.79838069511922</v>
       </c>
       <c r="D48" t="n">
-        <v>15.52850981196426</v>
+        <v>15.21717634725176</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.51162254893016</v>
+        <v>42.66399037579072</v>
       </c>
       <c r="D49" t="n">
-        <v>15.46504521633429</v>
+        <v>14.46499266491892</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.80283066222374</v>
+        <v>38.97135339752978</v>
       </c>
       <c r="D50" t="n">
-        <v>15.80749296552318</v>
+        <v>17.07244103357833</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.32053976244129</v>
+        <v>42.54644008469521</v>
       </c>
       <c r="D51" t="n">
-        <v>16.28637331795841</v>
+        <v>14.95480428619443</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.14711396690722</v>
+        <v>41.09120920269957</v>
       </c>
       <c r="D52" t="n">
-        <v>14.87996837326648</v>
+        <v>15.16240850115908</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.15484254210427</v>
+        <v>41.94485221769008</v>
       </c>
       <c r="D53" t="n">
-        <v>15.60108548106175</v>
+        <v>15.33398088350166</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.08745851224609</v>
+        <v>40.28486413915091</v>
       </c>
       <c r="D54" t="n">
-        <v>14.83039246263255</v>
+        <v>13.95604865372999</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.77356312117511</v>
+        <v>36.01546747207683</v>
       </c>
       <c r="D55" t="n">
-        <v>16.09870854185368</v>
+        <v>13.80376186635599</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>38.84610706459149</v>
+        <v>35.01776131655999</v>
       </c>
       <c r="D56" t="n">
-        <v>16.42121969764646</v>
+        <v>14.85880260498318</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.84545935500812</v>
+        <v>37.21275914033667</v>
       </c>
       <c r="D57" t="n">
-        <v>17.71276823575509</v>
+        <v>15.55215375588011</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>36.12230510267348</v>
+        <v>33.57816144380605</v>
       </c>
       <c r="D58" t="n">
-        <v>15.07528168335118</v>
+        <v>15.0975029741591</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.33101288981375</v>
+        <v>35.10056776463338</v>
       </c>
       <c r="D59" t="n">
-        <v>14.97038438215333</v>
+        <v>14.70059363763511</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.72198666426761</v>
+        <v>33.59319919681125</v>
       </c>
       <c r="D60" t="n">
-        <v>15.9451723816917</v>
+        <v>15.60186691650985</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>28.96192936659549</v>
+        <v>29.77558752842249</v>
       </c>
       <c r="D61" t="n">
-        <v>15.36807878411413</v>
+        <v>16.17799539980388</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>25.83419633824637</v>
+        <v>33.17176008351318</v>
       </c>
       <c r="D62" t="n">
-        <v>16.47415793682065</v>
+        <v>14.63995697926275</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.89755263378812</v>
+        <v>27.3378484257859</v>
       </c>
       <c r="D63" t="n">
-        <v>16.56143856018871</v>
+        <v>14.3329666789384</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>25.62793361470238</v>
+        <v>27.11768641641304</v>
       </c>
       <c r="D64" t="n">
-        <v>15.565067612203</v>
+        <v>16.36632239538155</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.59815178117914</v>
+        <v>27.03694179580678</v>
       </c>
       <c r="D65" t="n">
-        <v>17.05592509382233</v>
+        <v>15.19008090149253</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>29.65004748597439</v>
+        <v>29.06585709601038</v>
       </c>
       <c r="D66" t="n">
-        <v>17.99470254135558</v>
+        <v>14.60671544094127</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.17213369264555</v>
+        <v>24.17421963950741</v>
       </c>
       <c r="D67" t="n">
-        <v>16.60485643155209</v>
+        <v>14.24211543846873</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.89595043367057</v>
+        <v>22.68957928563648</v>
       </c>
       <c r="D68" t="n">
-        <v>15.44832572148128</v>
+        <v>14.37558117660968</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>26.34874103845867</v>
+        <v>24.83270171230083</v>
       </c>
       <c r="D69" t="n">
-        <v>15.46903866512359</v>
+        <v>16.38298645559655</v>
       </c>
     </row>
   </sheetData>
